--- a/outputs/ML_Results/dist_LR/All_model_short_table.xlsx
+++ b/outputs/ML_Results/dist_LR/All_model_short_table.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\ML_Results\dist_LR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E8D4A541-38D9-4E07-8B28-BE52070030CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5043988B-2E5B-49A2-876B-E6F0BDCABEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All_model_short" sheetId="1" r:id="rId1"/>
-    <sheet name="table" sheetId="2" r:id="rId2"/>
+    <sheet name="All_model_short_table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>param</t>
   </si>
@@ -69,62 +69,18 @@
   </si>
   <si>
     <t>LU_Comm_res</t>
-  </si>
-  <si>
-    <t>Avg. age</t>
-  </si>
-  <si>
-    <t>Commute trip share (%)</t>
-  </si>
-  <si>
-    <t>Dist. to center</t>
-  </si>
-  <si>
-    <t>Dist. to subcenter</t>
-  </si>
-  <si>
-    <t>Population density</t>
-  </si>
-  <si>
-    <t>Built-up density</t>
-  </si>
-  <si>
-    <t>Intersection density</t>
-  </si>
-  <si>
-    <t>Avg. street length</t>
-  </si>
-  <si>
-    <t>Urban fabric area (%)</t>
-  </si>
-  <si>
-    <t>Commercial area (%)</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Coefficient</t>
-  </si>
-  <si>
-    <t>Country France</t>
-  </si>
-  <si>
-    <t>Country Germany</t>
-  </si>
-  <si>
-    <t>Country Spain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,13 +211,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -608,17 +557,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -664,18 +609,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -988,13 +922,10 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+      <selection activeCell="C14" sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1012,10 +943,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-2177.1309357475002</v>
+        <v>-1705.18522655227</v>
       </c>
       <c r="C2" s="1">
-        <v>1.1202988438026001E-14</v>
+        <v>6.0613959985259301E-8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1023,10 +954,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-2540.5626507024299</v>
+        <v>-2282.28311162104</v>
       </c>
       <c r="C3" s="1">
-        <v>1.4736402606560499E-19</v>
+        <v>3.2397184248799E-13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1034,10 +965,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-1795.66450320032</v>
+        <v>-1893.17124822081</v>
       </c>
       <c r="C4" s="1">
-        <v>5.8540791759905997E-10</v>
+        <v>2.66696053516251E-9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1045,10 +976,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>16.395743098324399</v>
+        <v>25.149781191345699</v>
       </c>
       <c r="C5">
-        <v>1.20959255674505E-2</v>
+        <v>3.4383442632439999E-4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1056,10 +987,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>67.0101433014988</v>
+        <v>72.580146680178601</v>
       </c>
       <c r="C6" s="1">
-        <v>2.00506525492227E-27</v>
+        <v>1.0663717221661301E-25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1067,10 +998,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>112.688885151299</v>
+        <v>110.14352333005201</v>
       </c>
       <c r="C7" s="1">
-        <v>2.1489207679479201E-39</v>
+        <v>1.8619975495636702E-33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1078,10 +1009,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>56.662573955201204</v>
+        <v>56.475632611134102</v>
       </c>
       <c r="C8">
-        <v>9.231416909549E-4</v>
+        <v>3.0011266223089E-3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1089,18 +1020,21 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-3.0941325817384301E-2</v>
+        <v>-3.7927982496068098</v>
       </c>
       <c r="C9" s="1">
-        <v>4.7076287345520002E-6</v>
+        <v>1.9426894081635601E-7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10">
+        <v>-3.1071792806060299</v>
+      </c>
       <c r="C10">
-        <v>0.29768519224323098</v>
+        <v>0.44502679393836703</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1108,10 +1042,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-18.238808332813299</v>
+        <v>-18.900302625126301</v>
       </c>
       <c r="C11" s="1">
-        <v>9.3761361982276798E-14</v>
+        <v>8.8655069759651101E-13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1119,10 +1053,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>5.05046169279652</v>
+        <v>0.797017509519103</v>
       </c>
       <c r="C12">
-        <v>2.7623146779684402E-2</v>
+        <v>0.49197492441859902</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1130,10 +1064,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-5.98979296873698</v>
+        <v>-8.9626056031429702</v>
       </c>
       <c r="C13">
-        <v>1.46837496341111E-2</v>
+        <v>5.8420730859429996E-4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1141,185 +1075,180 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>-20.047835735407901</v>
+        <v>-23.8638599404159</v>
       </c>
       <c r="C14" s="1">
-        <v>1.00651955919625E-8</v>
+        <v>2.0488828265827199E-11</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>0.05</formula>
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J17"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="6">
-        <v>-2177.1309357475002</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="6">
-        <v>-2540.5626507024299</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="6">
-        <v>-1795.66450320032</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>16</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-1705.18522655227</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6.0613959985259301E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-2282.28311162104</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.2397184248799E-13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-1893.17124822081</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.66696053516251E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>25.149781191345699</v>
       </c>
       <c r="C5" s="5">
-        <v>16.395743098324399</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>17</v>
+        <v>3.4383442632439999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>72.580146680178601</v>
       </c>
       <c r="C6" s="5">
-        <v>67.0101433014988</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>18</v>
+        <v>1.0663717221661301E-25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>110.14352333005201</v>
       </c>
       <c r="C7" s="5">
-        <v>112.688885151299</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>19</v>
+        <v>1.8619975495636702E-33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>56.475632611134102</v>
       </c>
       <c r="C8" s="5">
-        <v>56.662573955201204</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-3.0941325817384301E-2</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>22</v>
+        <v>3.0011266223089E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-3.7927982496068098</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.9426894081635601E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-3.1071792806060299</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.44502679393836703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-18.900302625126301</v>
       </c>
       <c r="C11" s="5">
-        <v>-18.238808332813299</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>23</v>
+        <v>8.8655069759651101E-13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.797017509519103</v>
       </c>
       <c r="C12" s="5">
-        <v>5.05046169279652</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5">
-        <v>-5.98979296873698</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>25</v>
+        <v>0.49197492441859902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-8.9626056031429702</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5.8420730859429996E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-23.8638599404159</v>
       </c>
       <c r="C14" s="5">
-        <v>-20.047835735407901</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+        <v>2.0488828265827199E-11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/outputs/ML_Results/dist_LR/All_model_short_table.xlsx
+++ b/outputs/ML_Results/dist_LR/All_model_short_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\ML_Results\dist_LR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5043988B-2E5B-49A2-876B-E6F0BDCABEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6884DA2-EB0D-4AB0-9648-0E903AF390A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_model_short" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>param</t>
   </si>
@@ -69,12 +69,15 @@
   </si>
   <si>
     <t>LU_Comm_res</t>
+  </si>
+  <si>
+    <t>DistCenter_res_pc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -623,9 +626,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -663,7 +666,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -769,7 +772,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -911,18 +914,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="A1:C14"/>
+      <selection activeCell="A2" sqref="A2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,10 +946,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-1705.18522655227</v>
+        <v>-1615.7011365527501</v>
       </c>
       <c r="C2" s="1">
-        <v>6.0613959985259301E-8</v>
+        <v>2.3150861691328E-7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -954,10 +957,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-2282.28311162104</v>
+        <v>-2096.41471530015</v>
       </c>
       <c r="C3" s="1">
-        <v>3.2397184248799E-13</v>
+        <v>2.9379876256380003E-11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -965,10 +968,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-1893.17124822081</v>
+        <v>-1365.70154334427</v>
       </c>
       <c r="C4" s="1">
-        <v>2.66696053516251E-9</v>
+        <v>3.0171061763258E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -976,10 +979,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>25.149781191345699</v>
+        <v>19.660293114867901</v>
       </c>
       <c r="C5">
-        <v>3.4383442632439999E-4</v>
+        <v>5.1902917160977996E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -987,21 +990,21 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>72.580146680178601</v>
+        <v>73.971545363940507</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0663717221661301E-25</v>
+        <v>1.18835537232273E-26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>110.14352333005201</v>
+        <v>9.0211740009986805</v>
       </c>
       <c r="C7" s="1">
-        <v>1.8619975495636702E-33</v>
+        <v>1.50492399107082E-35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1009,10 +1012,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>56.475632611134102</v>
+        <v>60.965563012219697</v>
       </c>
       <c r="C8">
-        <v>3.0011266223089E-3</v>
+        <v>9.70869484935E-4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1020,10 +1023,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-3.7927982496068098</v>
+        <v>-3.4808134458465898</v>
       </c>
       <c r="C9" s="1">
-        <v>1.9426894081635601E-7</v>
+        <v>1.5234106167741399E-6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1031,10 +1034,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-3.1071792806060299</v>
+        <v>-3.5778093292700799</v>
       </c>
       <c r="C10">
-        <v>0.44502679393836703</v>
+        <v>0.36689261745722501</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1042,10 +1045,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-18.900302625126301</v>
+        <v>-17.9553753129216</v>
       </c>
       <c r="C11" s="1">
-        <v>8.8655069759651101E-13</v>
+        <v>8.8965345328113105E-12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1053,10 +1056,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.797017509519103</v>
+        <v>1.8430814938706399</v>
       </c>
       <c r="C12">
-        <v>0.49197492441859902</v>
+        <v>0.371888426652624</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1064,10 +1067,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-8.9626056031429702</v>
+        <v>-4.8266466803171602</v>
       </c>
       <c r="C13">
-        <v>5.8420730859429996E-4</v>
+        <v>6.2999910862285596E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1075,10 +1078,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>-23.8638599404159</v>
+        <v>-18.7013217205748</v>
       </c>
       <c r="C14" s="1">
-        <v>2.0488828265827199E-11</v>
+        <v>2.5177670029870298E-7</v>
       </c>
     </row>
   </sheetData>
@@ -1087,14 +1090,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1112,10 +1118,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>-1705.18522655227</v>
+        <v>-1615.7011365527501</v>
       </c>
       <c r="C2" s="5">
-        <v>6.0613959985259301E-8</v>
+        <v>2.3150861691328E-7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1123,10 +1129,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>-2282.28311162104</v>
+        <v>-2096.41471530015</v>
       </c>
       <c r="C3" s="5">
-        <v>3.2397184248799E-13</v>
+        <v>2.9379876256380003E-11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1134,10 +1140,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>-1893.17124822081</v>
+        <v>-1365.70154334427</v>
       </c>
       <c r="C4" s="5">
-        <v>2.66696053516251E-9</v>
+        <v>3.0171061763258E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1145,10 +1151,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>25.149781191345699</v>
+        <v>19.660293114867901</v>
       </c>
       <c r="C5" s="5">
-        <v>3.4383442632439999E-4</v>
+        <v>5.1902917160977996E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1156,10 +1162,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>72.580146680178601</v>
+        <v>73.971545363940507</v>
       </c>
       <c r="C6" s="5">
-        <v>1.0663717221661301E-25</v>
+        <v>1.18835537232273E-26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1167,10 +1173,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>110.14352333005201</v>
+        <v>9.0211740009986805</v>
       </c>
       <c r="C7" s="5">
-        <v>1.8619975495636702E-33</v>
+        <v>1.50492399107082E-35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1178,10 +1184,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>56.475632611134102</v>
+        <v>60.965563012219697</v>
       </c>
       <c r="C8" s="5">
-        <v>3.0011266223089E-3</v>
+        <v>9.70869484935E-4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1189,10 +1195,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>-3.7927982496068098</v>
+        <v>-3.4808134458465898</v>
       </c>
       <c r="C9" s="5">
-        <v>1.9426894081635601E-7</v>
+        <v>1.5234106167741399E-6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1200,10 +1206,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>-3.1071792806060299</v>
+        <v>-3.5778093292700799</v>
       </c>
       <c r="C10" s="5">
-        <v>0.44502679393836703</v>
+        <v>0.36689261745722501</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1211,10 +1217,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>-18.900302625126301</v>
+        <v>-17.9553753129216</v>
       </c>
       <c r="C11" s="5">
-        <v>8.8655069759651101E-13</v>
+        <v>8.8965345328113105E-12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1222,10 +1228,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>0.797017509519103</v>
+        <v>1.8430814938706399</v>
       </c>
       <c r="C12" s="5">
-        <v>0.49197492441859902</v>
+        <v>0.371888426652624</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1233,10 +1239,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>-8.9626056031429702</v>
+        <v>-4.8266466803171602</v>
       </c>
       <c r="C13" s="4">
-        <v>5.8420730859429996E-4</v>
+        <v>6.2999910862285596E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1244,10 +1250,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>-23.8638599404159</v>
+        <v>-18.7013217205748</v>
       </c>
       <c r="C14" s="5">
-        <v>2.0488828265827199E-11</v>
+        <v>2.5177670029870298E-7</v>
       </c>
     </row>
   </sheetData>
